--- a/OrdersPck.xlsx
+++ b/OrdersPck.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Transitus14\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EB33C98-BBA2-4227-8080-51151D0F0885}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A198A91F-03BA-41DF-8AE0-2D116763C95B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -296,13 +296,7 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:J18" totalsRowShown="0">
-  <autoFilter ref="A1:J18" xr:uid="{00000000-0009-0000-0100-000001000000}">
-    <filterColumn colId="5">
-      <filters>
-        <filter val="Step 1"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:J18" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="TestScenarioID"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="TestCaseID"/>
@@ -606,8 +600,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -621,7 +615,7 @@
     <col min="7" max="7" width="57.85546875" customWidth="1"/>
     <col min="8" max="8" width="91.5703125" customWidth="1"/>
     <col min="9" max="9" width="20.42578125" customWidth="1"/>
-    <col min="10" max="10" width="17" customWidth="1"/>
+    <col min="10" max="10" width="19.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -682,7 +676,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E3" t="s">
         <v>17</v>
       </c>
@@ -696,7 +690,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E4" t="s">
         <v>21</v>
       </c>
@@ -710,7 +704,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E5" t="s">
         <v>25</v>
       </c>
@@ -724,7 +718,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E6" t="s">
         <v>29</v>
       </c>
@@ -738,7 +732,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F7" t="s">
         <v>33</v>
       </c>
@@ -778,7 +772,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="9" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F9" t="s">
         <v>18</v>
       </c>
@@ -815,7 +809,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E11" t="s">
         <v>17</v>
       </c>
@@ -829,7 +823,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E12" t="s">
         <v>21</v>
       </c>
@@ -843,7 +837,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E13" t="s">
         <v>25</v>
       </c>
@@ -857,7 +851,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E14" t="s">
         <v>29</v>
       </c>
@@ -871,7 +865,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F15" t="s">
         <v>33</v>
       </c>
@@ -908,7 +902,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="6:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F17" t="s">
         <v>18</v>
       </c>
@@ -919,7 +913,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="18" spans="6:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F18" t="s">
         <v>22</v>
       </c>

--- a/OrdersPck.xlsx
+++ b/OrdersPck.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Transitus14\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A198A91F-03BA-41DF-8AE0-2D116763C95B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED69B7E4-F1FE-4E8B-A9FC-3D4FC1161C8E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -600,8 +600,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -766,10 +766,7 @@
         <v>40</v>
       </c>
       <c r="I8" t="s">
-        <v>58</v>
-      </c>
-      <c r="J8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -806,7 +803,10 @@
         <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="J10" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">

--- a/OrdersPck.xlsx
+++ b/OrdersPck.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Transitus14\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED69B7E4-F1FE-4E8B-A9FC-3D4FC1161C8E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6EAB757-98EE-4636-AD18-A5F6581FE65E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -601,7 +601,7 @@
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
